--- a/Docs/диаграма Ганта.xlsx
+++ b/Docs/диаграма Ганта.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diman\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345D349E-B4C1-4737-AC79-57DD08F94D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36965D-D897-43BA-8F48-DF335AAC62FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23B28B44-27B5-4F18-9979-2DD023668ED2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Задача</t>
   </si>
@@ -44,37 +31,94 @@
     <t>Тривалість</t>
   </si>
   <si>
-    <t>Розробка загального рішення</t>
-  </si>
-  <si>
-    <t>Дизайн</t>
-  </si>
-  <si>
-    <t>Реалізація додатку</t>
-  </si>
-  <si>
-    <t>Меню</t>
-  </si>
-  <si>
-    <t>Вкладка "Прем'єра"</t>
-  </si>
-  <si>
-    <t>Вкладка Скоро в кіно</t>
-  </si>
-  <si>
-    <t>Вкладка Знайти найближчий кінотеатр</t>
-  </si>
-  <si>
-    <t>Тестування</t>
-  </si>
-  <si>
-    <t>Приймальне тестування</t>
-  </si>
-  <si>
-    <t>Реліз</t>
-  </si>
-  <si>
-    <t>Дата завершення</t>
+    <t>Project-manager</t>
+  </si>
+  <si>
+    <t>Tech-manager</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Back-end developer</t>
+  </si>
+  <si>
+    <t>Front-end developer</t>
+  </si>
+  <si>
+    <t>1 Розробка загального рішення</t>
+  </si>
+  <si>
+    <t>1.1 Огляд існуючих рішень</t>
+  </si>
+  <si>
+    <t>1.2 Написання ТЗ</t>
+  </si>
+  <si>
+    <t>1.3 Проектування архітектури проекту</t>
+  </si>
+  <si>
+    <t>1.4 Проектування БД</t>
+  </si>
+  <si>
+    <t>1.5 Пошук та налаштування серверів</t>
+  </si>
+  <si>
+    <t>2 Дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 Розробка макету </t>
+  </si>
+  <si>
+    <t>2.2 Розробка дизайну для desktop пристроїв</t>
+  </si>
+  <si>
+    <t>2.3 Розробка дизайну для мобільних пристроїв</t>
+  </si>
+  <si>
+    <t>3 Реалізація Додатку</t>
+  </si>
+  <si>
+    <t>3.1 Розробка API</t>
+  </si>
+  <si>
+    <t>3.2 Написання парсера</t>
+  </si>
+  <si>
+    <t>3.3 Підключення до БД</t>
+  </si>
+  <si>
+    <t>3.4 Створення головної сторінки</t>
+  </si>
+  <si>
+    <t>3.4.1 Розробка функціоналу</t>
+  </si>
+  <si>
+    <t>3.4.2 Впровадження функціоналу</t>
+  </si>
+  <si>
+    <t>3.5 Створення вкладки "Прем'єри"</t>
+  </si>
+  <si>
+    <t>3.5.1 Розробка функціоналу</t>
+  </si>
+  <si>
+    <t>3.5.2 Впровадження функціоналу</t>
+  </si>
+  <si>
+    <t>3.6 Створення вкладки "Найближчий кінотеатр"</t>
+  </si>
+  <si>
+    <t>3.6.1 Розробка функціоналу</t>
+  </si>
+  <si>
+    <t>3.6.2 Впровадження функціоналу</t>
+  </si>
+  <si>
+    <t>4 Реліз</t>
   </si>
 </sst>
 </file>
@@ -86,17 +130,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,15 +190,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,10 +245,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20012349969862972"/>
-          <c:y val="7.1977393770625522E-2"/>
-          <c:w val="0.76842928502716068"/>
-          <c:h val="0.92802260622937449"/>
+          <c:x val="0.17216275375166218"/>
+          <c:y val="4.1619815756168292E-2"/>
+          <c:w val="0.79854453617036447"/>
+          <c:h val="0.92178785235426275"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -186,84 +279,168 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>Розробка загального рішення</c:v>
+                  <c:v>1 Розробка загального рішення</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Дизайн</c:v>
+                  <c:v>1.1 Огляд існуючих рішень</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Реалізація додатку</c:v>
+                  <c:v>1.2 Написання ТЗ</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Меню</c:v>
+                  <c:v>1.3 Проектування архітектури проекту</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Вкладка "Прем'єра"</c:v>
+                  <c:v>1.4 Проектування БД</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Вкладка Скоро в кіно</c:v>
+                  <c:v>1.5 Пошук та налаштування серверів</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Вкладка Знайти найближчий кінотеатр</c:v>
+                  <c:v>2 Дизайн</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Тестування</c:v>
+                  <c:v>2.1 Розробка макету </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Приймальне тестування</c:v>
+                  <c:v>2.2 Розробка дизайну для desktop пристроїв</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Реліз</c:v>
+                  <c:v>2.3 Розробка дизайну для мобільних пристроїв</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3 Реалізація Додатку</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1 Розробка API</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2 Написання парсера</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3 Підключення до БД</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4 Створення головної сторінки</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4.1 Розробка функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4.2 Впровадження функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5 Створення вкладки "Прем'єри"</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5.1 Розробка функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5.2 Впровадження функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6 Створення вкладки "Найближчий кінотеатр"</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6.1 Розробка функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6.2 Впровадження функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4 Реліз</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$11</c:f>
+              <c:f>Лист1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>43878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43909</c:v>
+                  <c:v>43878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43927</c:v>
+                  <c:v>43879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43927</c:v>
+                  <c:v>43884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43933</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43976</c:v>
+                <c:pt idx="17">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B001-47EB-9D5D-E3AEF2CDD704}"/>
+              <c16:uniqueId val="{00000000-A897-41AA-B2EB-0D03C4FCE1AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -291,86 +468,791 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="14000">
+                    <a:srgbClr val="FFFF00"/>
+                  </a:gs>
+                  <a:gs pos="15000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="85000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="60000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="59000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="44000">
+                    <a:srgbClr val="FF0000"/>
+                  </a:gs>
+                  <a:gs pos="29500">
+                    <a:srgbClr val="972B4C"/>
+                  </a:gs>
+                  <a:gs pos="30000">
+                    <a:srgbClr val="FF0000"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="33000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="34000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="63000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="64000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="32000">
+                    <a:srgbClr val="FFFF00"/>
+                  </a:gs>
+                  <a:gs pos="64000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="63000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="33000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003C-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="51000">
+                    <a:srgbClr val="FF0000"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="9000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003A-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="51000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="53000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0066"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000038-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0066"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="54000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="62000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                  <a:gs pos="54000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                  <a:gs pos="62000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="91000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="91000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                  <a:gs pos="84000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                  <a:gs pos="75000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="75000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000036-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000034-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="52000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000032-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0066"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="52000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0066"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="52000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0066"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="FFFF00"/>
+                  </a:gs>
+                  <a:gs pos="19000">
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="41000">
+                    <a:srgbClr val="FF0000"/>
+                  </a:gs>
+                  <a:gs pos="76000">
+                    <a:srgbClr val="00B050"/>
+                  </a:gs>
+                  <a:gs pos="61000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="92000">
+                    <a:srgbClr val="FF0066"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A897-41AA-B2EB-0D03C4FCE1AC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>Розробка загального рішення</c:v>
+                  <c:v>1 Розробка загального рішення</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Дизайн</c:v>
+                  <c:v>1.1 Огляд існуючих рішень</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Реалізація додатку</c:v>
+                  <c:v>1.2 Написання ТЗ</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Меню</c:v>
+                  <c:v>1.3 Проектування архітектури проекту</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Вкладка "Прем'єра"</c:v>
+                  <c:v>1.4 Проектування БД</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Вкладка Скоро в кіно</c:v>
+                  <c:v>1.5 Пошук та налаштування серверів</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Вкладка Знайти найближчий кінотеатр</c:v>
+                  <c:v>2 Дизайн</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Тестування</c:v>
+                  <c:v>2.1 Розробка макету </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Приймальне тестування</c:v>
+                  <c:v>2.2 Розробка дизайну для desktop пристроїв</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Реліз</c:v>
+                  <c:v>2.3 Розробка дизайну для мобільних пристроїв</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3 Реалізація Додатку</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1 Розробка API</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2 Написання парсера</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3 Підключення до БД</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4 Створення головної сторінки</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4.1 Розробка функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4.2 Впровадження функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5 Створення вкладки "Прем'єри"</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5.1 Розробка функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5.2 Впровадження функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6 Створення вкладки "Найближчий кінотеатр"</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6.1 Розробка функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6.2 Впровадження функціоналу</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4 Реліз</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$11</c:f>
+              <c:f>Лист1!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B001-47EB-9D5D-E3AEF2CDD704}"/>
+              <c16:uniqueId val="{00000002-A897-41AA-B2EB-0D03C4FCE1AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -384,11 +1266,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="242539967"/>
-        <c:axId val="232673023"/>
+        <c:axId val="925795503"/>
+        <c:axId val="714157695"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242539967"/>
+        <c:axId val="925795503"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -431,7 +1313,7 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232673023"/>
+        <c:crossAx val="714157695"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,10 +1321,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232673023"/>
+        <c:axId val="714157695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43978"/>
+          <c:max val="43981"/>
           <c:min val="43878"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -461,7 +1343,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="0"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -492,11 +1374,9 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242539967"/>
+        <c:crossAx val="925795503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="7"/>
-        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1099,23 +1979,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEB2D2D-15D8-484F-8B54-FC019EE356F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E076AC8-3FD6-4CF9-B76D-930A43286BC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +2059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1212,26 +2092,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1264,23 +2127,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1423,31 +2269,32 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4482E8-456C-4590-8D2D-0BCF76FC8C75}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1457,119 +2304,502 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>43878</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>43909</v>
+        <v>43878</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>43927</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43884</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>43927</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43933</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>43936</v>
+        <v>43897</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>43939</v>
+        <v>43900</v>
       </c>
       <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43948</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43907</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43969</v>
-      </c>
-      <c r="C10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7">
+        <v>4</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43976</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43945</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7">
+        <v>4</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43953</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43957</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="4">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
